--- a/Data_frame/balancos_definitivos/CAFE4.xlsx
+++ b/Data_frame/balancos_definitivos/CAFE4.xlsx
@@ -6177,21 +6177,11 @@
       <c r="AA57" t="n">
         <v>3959</v>
       </c>
-      <c r="AB57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6275,21 +6265,11 @@
       <c r="AA58" t="n">
         <v>-813</v>
       </c>
-      <c r="AB58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6787,85 +6767,33 @@
           <t xml:space="preserve">Perdas pela Não Recuperabilidade de Ativos </t>
         </is>
       </c>
-      <c r="B64" t="n">
-        <v>0</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0</v>
-      </c>
-      <c r="R64" t="n">
-        <v>0</v>
-      </c>
-      <c r="S64" t="n">
-        <v>0</v>
-      </c>
-      <c r="T64" t="n">
-        <v>0</v>
-      </c>
-      <c r="U64" t="n">
-        <v>0</v>
-      </c>
-      <c r="V64" t="n">
-        <v>0</v>
-      </c>
-      <c r="W64" t="n">
-        <v>0</v>
-      </c>
-      <c r="X64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>0</v>
-      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
       <c r="AC64" t="n">
         <v>0</v>
       </c>
@@ -7268,7 +7196,7 @@
         <v>-79230</v>
       </c>
       <c r="AF68" t="n">
-        <v>155225.008</v>
+        <v>155224.992</v>
       </c>
     </row>
     <row r="69">
@@ -7452,7 +7380,7 @@
         <v>-68486</v>
       </c>
       <c r="AB70" t="n">
-        <v>-96891.008</v>
+        <v>-96891.016</v>
       </c>
       <c r="AC70" t="n">
         <v>-84228</v>
@@ -7549,21 +7477,11 @@
       <c r="AA71" t="n">
         <v>0</v>
       </c>
-      <c r="AB71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="inlineStr"/>
+      <c r="AD71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr"/>
+      <c r="AF71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7647,21 +7565,11 @@
       <c r="AA72" t="n">
         <v>0</v>
       </c>
-      <c r="AB72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr"/>
+      <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7745,21 +7653,11 @@
       <c r="AA73" t="n">
         <v>0</v>
       </c>
-      <c r="AB73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr"/>
+      <c r="AD73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7832,7 +7730,7 @@
         <v>-48924</v>
       </c>
       <c r="X74" t="n">
-        <v>-52076</v>
+        <v>-52076.008</v>
       </c>
       <c r="Y74" t="n">
         <v>-68065</v>
@@ -7844,7 +7742,7 @@
         <v>-75170</v>
       </c>
       <c r="AB74" t="n">
-        <v>-86304</v>
+        <v>-86303.992</v>
       </c>
       <c r="AC74" t="n">
         <v>-85676</v>
@@ -8137,21 +8035,11 @@
       <c r="AA77" t="n">
         <v>0</v>
       </c>
-      <c r="AB77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB77" t="inlineStr"/>
+      <c r="AC77" t="inlineStr"/>
+      <c r="AD77" t="inlineStr"/>
+      <c r="AE77" t="inlineStr"/>
+      <c r="AF77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8235,21 +8123,11 @@
       <c r="AA78" t="n">
         <v>0</v>
       </c>
-      <c r="AB78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="inlineStr"/>
+      <c r="AD78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr"/>
+      <c r="AF78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8257,85 +8135,33 @@
           <t>Part. de Acionistas Não Controladores</t>
         </is>
       </c>
-      <c r="B79" t="n">
-        <v>0</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>0</v>
-      </c>
-      <c r="R79" t="n">
-        <v>0</v>
-      </c>
-      <c r="S79" t="n">
-        <v>0</v>
-      </c>
-      <c r="T79" t="n">
-        <v>0</v>
-      </c>
-      <c r="U79" t="n">
-        <v>0</v>
-      </c>
-      <c r="V79" t="n">
-        <v>0</v>
-      </c>
-      <c r="W79" t="n">
-        <v>0</v>
-      </c>
-      <c r="X79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>0</v>
-      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr"/>
       <c r="AC79" t="n">
         <v>1122</v>
       </c>
@@ -8420,7 +8246,7 @@
         <v>-48924</v>
       </c>
       <c r="X80" t="n">
-        <v>-49566.992</v>
+        <v>-49567</v>
       </c>
       <c r="Y80" t="n">
         <v>-68065</v>
@@ -8432,7 +8258,7 @@
         <v>-75170</v>
       </c>
       <c r="AB80" t="n">
-        <v>-80592.992</v>
+        <v>-80592.984</v>
       </c>
       <c r="AC80" t="n">
         <v>-84554</v>
